--- a/financeiro.xlsx
+++ b/financeiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.reis\Desktop\faculdade\Mensal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD94EEF-F32A-496F-8A76-86F56C0B30F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB839D-598A-4218-AF57-15AF0201E967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,10 +468,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -549,10 +554,17 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -666,12 +678,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/financeiro.xlsx
+++ b/financeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.reis\Desktop\faculdade\Mensal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB839D-598A-4218-AF57-15AF0201E967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A6F29E-B791-4D5E-8BA7-1BFBC1A466E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entrada" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>4000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>14500</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,10 +736,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>14950</v>
+        <v>1350</v>
       </c>
       <c r="C5">
-        <v>550</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +747,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>15500</v>
+        <v>1500</v>
       </c>
       <c r="C6">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
